--- a/medicine/Enfance/La_Guerre_des_Lulus/La_Guerre_des_Lulus.xlsx
+++ b/medicine/Enfance/La_Guerre_des_Lulus/La_Guerre_des_Lulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Guerre des Lulus est une série de bande dessinée belge créée par le scénariste Régis Hautière et le dessinateur Hardoc, éditée depuis janvier 2013 aux éditions Casterman. Elle relate l'histoire de la Grande Guerre à travers l'histoire de cinq orphelins vivant en zone occupée.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lucas, Lucien, Luigi et Ludwig sont quatre des pensionnaires de l’orphelinat de l’abbaye de Valencourt en Picardie. Tout le monde les surnomme les Lulus.
 En cet été 1914, l'offensive de l'armée allemande au nord-est de la France jette des milliers de villageois sur les routes. Dans le désordre ambiant, les Lulus sont oubliés lors de l'évacuation de leur orphelinat. Bientôt, ils se retrouvent isolés derrière la ligne de front. Livrés à eux-mêmes en territoire ennemi, ils s'organisent pour survivre…
@@ -544,7 +558,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lucas, le plus jeune
 Lucien, l'ainé et le meneur
@@ -580,57 +596,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cycle 1
-Ce cycle relate l'histoire des Lulus durant toute la Première Guerre mondiale.
+          <t>Cycle 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ce cycle relate l'histoire des Lulus durant toute la Première Guerre mondiale.
 1 1914, la maison des enfants trouvés, Casterman, janvier 2013Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203034426)
 2 1915, Hans, Casterman, janvier 2014Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203063976)
 3 1916, le tas de briques, Casterman, septembre 2015Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203087729)
 4 1917, la déchirure, Casterman, septembre 2016Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203102835)
-5 1918, le der des ders, Casterman, novembre 2017Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203126305)
-Cycle 2
-Ce cycle relate les aventures des Lulus entre le 11 novembre 1918 (armistice) et le 28 juin 1919 (signature du traité de paix, à Versailles). L'histoire de chaque tome est abordée selon un point de vue différent (celui de l'un des Lulus).
+5 1918, le der des ders, Casterman, novembre 2017Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David François -  (ISBN 9782203126305)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cycle 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce cycle relate les aventures des Lulus entre le 11 novembre 1918 (armistice) et le 28 juin 1919 (signature du traité de paix, à Versailles). L'histoire de chaque tome est abordée selon un point de vue différent (celui de l'un des Lulus).
 6 Lucien, Casterman, novembre 2019Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David Périmony -  (ISBN 9782203159266)
 7 Luigi, Casterman, janvier 2021Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David Périmony -  (ISBN 9782203159273)
 8 Luce, Casterman, octobre 2022Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David Périmony -  (ISBN 9782203222779)
-9 Lucas, Casterman, novembre 2023Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David Périmony -  (ISBN 9782203224278)
-La perspective Luigi
-Ce cycle relate le séjour des Lulus en Allemagne, entre le printemps 1916 et l'été 1917. Sur ces deux tomes, l'histoire est racontée du point de vue de Luigi.
-HS1 1916, la perspective Luigi 1/2, Casterman, juin 2018Scénario : Régis Hautière - Dessin : Damien Cuvillier - Couleurs : David François -  (ISBN 9782203136847)
-HS2 1916, la perspective Luigi 2/2, Casterman, septembre 2019Scénario : Régis Hautière - Dessin : Damien Cuvillier - Couleurs : David François -  (ISBN 9782203136939)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La_Guerre_des_Lulus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_Lulus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Postérité</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adaptation en romans
-Une série de romans jeunesse, écrite par Eva Grynszpan et publiée par les éditions Casterman, reprend l'histoire de la bande dessinée. Les quatre premiers volumes sont parus entre janvier et août 2023.
-Adaptation au cinéma
-L'adaptation cinématographique des trois premiers tomes, scénarisée et réalisée par Yann Samuell, est sortie le 18 janvier 2023 au cinéma[1].
-</t>
+9 Lucas, Casterman, novembre 2023Scénario : Régis Hautière - Dessin : Hardoc - Couleurs : David Périmony -  (ISBN 9782203224278)</t>
         </is>
       </c>
     </row>
@@ -655,13 +672,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Accueil</t>
+          <t>Albums</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pour Charles-Louis Detournay d'ActuaBD, le premier tome 1914, la maison des enfants trouvés (2013) n'est pas sans rappeler le film Après la guerre (1989) de Jean-Loup Hubert, avec Richard Bohringer :  « Les personnages sont très bien composés, les rendant très attachants »[2].
-</t>
+          <t>La perspective Luigi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ce cycle relate le séjour des Lulus en Allemagne, entre le printemps 1916 et l'été 1917. Sur ces deux tomes, l'histoire est racontée du point de vue de Luigi.
+HS1 1916, la perspective Luigi 1/2, Casterman, juin 2018Scénario : Régis Hautière - Dessin : Damien Cuvillier - Couleurs : David François -  (ISBN 9782203136847)
+HS2 1916, la perspective Luigi 2/2, Casterman, septembre 2019Scénario : Régis Hautière - Dessin : Damien Cuvillier - Couleurs : David François -  (ISBN 9782203136939)</t>
         </is>
       </c>
     </row>
@@ -686,10 +710,119 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Adaptation en romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une série de romans jeunesse, écrite par Eva Grynszpan et publiée par les éditions Casterman, reprend l'histoire de la bande dessinée. Les quatre premiers volumes sont parus entre janvier et août 2023.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Postérité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Adaptation au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adaptation cinématographique des trois premiers tomes, scénarisée et réalisée par Yann Samuell, est sortie le 18 janvier 2023 au cinéma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Charles-Louis Detournay d'ActuaBD, le premier tome 1914, la maison des enfants trouvés (2013) n'est pas sans rappeler le film Après la guerre (1989) de Jean-Loup Hubert, avec Richard Bohringer :  « Les personnages sont très bien composés, les rendant très attachants ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Guerre_des_Lulus</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>2013 : Prix du Conseil municipal des enfants au salon du livre de Saint-Etienne
 2013 : Prix Avenir au festival de Lys-Lez-Lannoy
@@ -698,7 +831,7 @@
 2014 : Prix Latulu des collégiens du Maine-et-Loire
 2014 : Prix des Jeunes Lecteurs de l'Oise
 2016 : Prix du Conseil Municipal des Enfants (Pontivy)
-2017 : Médaille départementale du centenaire de la part du Conseil départemental de la Somme, pour Régis Hautière et Hardoc[3]</t>
+2017 : Médaille départementale du centenaire de la part du Conseil départemental de la Somme, pour Régis Hautière et Hardoc</t>
         </is>
       </c>
     </row>
